--- a/docs/Especificação de Requisitos/PsychoMeet_QuadroDeUserStories_vrs 1.0.xlsx
+++ b/docs/Especificação de Requisitos/PsychoMeet_QuadroDeUserStories_vrs 1.0.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\FAI SI - P5\FAITEC 2024\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\PsychoMeet\PsychoMeet\docs\Especificação de Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A4E5D-091D-4810-854F-44582F6088B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7543CD88-5836-4AFD-ACAB-DFA1591D14F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quadro de US" sheetId="1" r:id="rId1"/>
     <sheet name="BackLog do Produto" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataChecksum="bkAsXbD9swQ+XnowSAK2XQpWSF+CR0/o3vlvuan+2og="/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+  <si>
+    <t>Projeto Interdisciplinar 2024</t>
+  </si>
+  <si>
+    <t>Quadro de User Stories</t>
+  </si>
+  <si>
+    <t>Nome do projeto</t>
+  </si>
   <si>
     <t xml:space="preserve">Obs: ***hoje não vamos dividir em releases as user stories no Quadro. Faremos isso quando formos discutir a Tarefa de Negociação / Atividade de Planejamento. </t>
   </si>
@@ -34,10 +43,103 @@
     <t>Tema/Atividades do Usuário/Processos do Usuário</t>
   </si>
   <si>
+    <t>Cadastro e perfil de usuários</t>
+  </si>
+  <si>
+    <t>Busca de profissionais</t>
+  </si>
+  <si>
+    <t>Consulta</t>
+  </si>
+  <si>
+    <t>Pós-Consulta</t>
+  </si>
+  <si>
     <t>Tarefas do Usuário/Épicos</t>
   </si>
   <si>
+    <t>Gestão de cadastro</t>
+  </si>
+  <si>
+    <t>Pesquisa e seleção de psicólogos</t>
+  </si>
+  <si>
+    <t>Agendamento de consultas</t>
+  </si>
+  <si>
+    <t>Encerramento de consulta</t>
+  </si>
+  <si>
     <t>Histórias de Usuário "Eu como QUEM, Quero O QUE, Porque PORQUE" (organizadas por prioridade***)</t>
+  </si>
+  <si>
+    <t>US 01 Realizar cadastro        (Fundamental)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US 04 Buscar profissinais        (Fundamental)  </t>
+  </si>
+  <si>
+    <t>US 08 Visualizar disponibilidade dos psicólogos                  (Fundamental)</t>
+  </si>
+  <si>
+    <t>US 16 Fornecer feedbacks       (Bom de ter)</t>
+  </si>
+  <si>
+    <t>US 02 Editar perfil      (Fundamental)</t>
+  </si>
+  <si>
+    <t>US 05 Vizualizar perfil dos psicólogos                               (Fundamental)</t>
+  </si>
+  <si>
+    <t>US 09 Marcar consulta (Fundamental)</t>
+  </si>
+  <si>
+    <t>US 17 Acessar histórico de consultas                                              (Bom de ter)</t>
+  </si>
+  <si>
+    <t>US 03 Criar filtros             (Fundamental)</t>
+  </si>
+  <si>
+    <t>US 10 Remarcar consulta      (Fundamental)</t>
+  </si>
+  <si>
+    <t>US 06 Visualizar feedbacks                    (Bom de ter)</t>
+  </si>
+  <si>
+    <t>US 18 Entrar em contato pelo sistema                            (Irrelevante)</t>
+  </si>
+  <si>
+    <t>US 11 Desmarcar consulta (Fundamental)</t>
+  </si>
+  <si>
+    <t>US 07 Adicionar psicólogos aos favoritos                                (Irrelevante)</t>
+  </si>
+  <si>
+    <t>US 12 Realizar pagamento        (Irrelevante)</t>
+  </si>
+  <si>
+    <t>US 13 Receber lembrete             (Irrelevante)</t>
+  </si>
+  <si>
+    <t>US 14 Informar disponibilidade            (Fundamental)</t>
+  </si>
+  <si>
+    <t>Legenda  (cor por stackholder)</t>
+  </si>
+  <si>
+    <t>US 15 Aceitar e recusar consultas                    (Fundamental)</t>
+  </si>
+  <si>
+    <t>Pessoa interessada em oferecer seus serviços: Psicólogo</t>
+  </si>
+  <si>
+    <t>Pessoa</t>
+  </si>
+  <si>
+    <t>Pessoa interessada em adquirir os serviços: Paciente</t>
+  </si>
+  <si>
+    <t>Glossário de Termos (se necessário)</t>
   </si>
   <si>
     <r>
@@ -47,6 +149,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">BACKLOG DO PRODUTO </t>
     </r>
@@ -57,6 +160,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>(ESCOPO DO PRODUTO)</t>
     </r>
@@ -77,323 +181,231 @@
     <t>Descrição</t>
   </si>
   <si>
+    <t>US 01</t>
+  </si>
+  <si>
+    <t>Eu como pessoa</t>
+  </si>
+  <si>
+    <t>Quero realizar um cadastro no sistema</t>
+  </si>
+  <si>
+    <t>Para ter acesso aos serviços</t>
+  </si>
+  <si>
+    <t>US 02</t>
+  </si>
+  <si>
+    <t>Quero poder editar meu perfil</t>
+  </si>
+  <si>
+    <t>Para atualizar minhas informações</t>
+  </si>
+  <si>
+    <t>US 03</t>
+  </si>
+  <si>
+    <t>Eu como pessoa interessada em adquirir seus serviços: Paciente</t>
+  </si>
+  <si>
+    <t>Quero criar filtros</t>
+  </si>
+  <si>
+    <t>Para atender minhas especificações</t>
+  </si>
+  <si>
+    <t>US 04</t>
+  </si>
+  <si>
+    <t>Quero buscar profissionais</t>
+  </si>
+  <si>
+    <t>Para ter um bom atendimento psicológico</t>
+  </si>
+  <si>
+    <t>US 05</t>
+  </si>
+  <si>
+    <t>Quero vizualizar o perfil dos psicólogos</t>
+  </si>
+  <si>
+    <t>Pra ter acesso a suas informações</t>
+  </si>
+  <si>
+    <t>US 06</t>
+  </si>
+  <si>
+    <t>Quero vizualizar avaliações dos profissionais</t>
+  </si>
+  <si>
+    <t>Para ter um feedback de outros pacientes</t>
+  </si>
+  <si>
+    <t>US 08</t>
+  </si>
+  <si>
+    <t>Quero vizualizar a disponibilidade dos profissionais</t>
+  </si>
+  <si>
+    <t>Para agendar um horário</t>
+  </si>
+  <si>
+    <t>US 09</t>
+  </si>
+  <si>
+    <t>Quero marcar consultas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para receber os devidos tratamentos psicológicos </t>
+  </si>
+  <si>
+    <t>US 10</t>
+  </si>
+  <si>
+    <t>Quero poder remarcar minha consulta</t>
+  </si>
+  <si>
+    <t>Para caso haja um imprevisto</t>
+  </si>
+  <si>
+    <t>US 11</t>
+  </si>
+  <si>
+    <t>Quero poder desmarcar minha consulta</t>
+  </si>
+  <si>
+    <t>Para caso haja um emprevisto</t>
+  </si>
+  <si>
+    <t>US 14</t>
+  </si>
+  <si>
+    <t>Eu como pessoa interessada em oferecer seus serviços: Psicólogo</t>
+  </si>
+  <si>
+    <t>Quero informar minha disponibilidade</t>
+  </si>
+  <si>
+    <t>Para os pacientes terem acesso os horários</t>
+  </si>
+  <si>
+    <t>US 15</t>
+  </si>
+  <si>
+    <t>Quero aceitar e recusar consultas</t>
+  </si>
+  <si>
+    <t>Para ter um maior controle</t>
+  </si>
+  <si>
+    <t>US 16</t>
+  </si>
+  <si>
+    <t>Quero fornecer feedbacks aos profissionais</t>
+  </si>
+  <si>
+    <t>Para compartilhar minha experiência</t>
+  </si>
+  <si>
+    <t>US 17</t>
+  </si>
+  <si>
+    <t>Quero ter registrado meu histórico de consulta</t>
+  </si>
+  <si>
+    <t>Para acompanhar o tratamento</t>
+  </si>
+  <si>
     <t>NÃO ESCOPO DO PRODUTO (USER STORY QUE NÃO FARÃO PARTE DO ESCOPO DO PRODUTO)</t>
   </si>
   <si>
-    <t>Projeto Interdisciplinar 2024</t>
-  </si>
-  <si>
-    <t>Nome do projeto</t>
-  </si>
-  <si>
-    <t>Quadro de User Stories</t>
-  </si>
-  <si>
-    <t>Legenda  (cor por stackholder)</t>
-  </si>
-  <si>
-    <t>Glossário de Termos (se necessário)</t>
-  </si>
-  <si>
-    <t>Pessoa</t>
-  </si>
-  <si>
-    <t>Pessoa interessada em adquirir os serviços: Paciente</t>
-  </si>
-  <si>
-    <t>Cadastro e perfil de usuários</t>
-  </si>
-  <si>
-    <t>Gestão de cadastro</t>
-  </si>
-  <si>
-    <t>Pesquisa e seleção de psicólogos</t>
-  </si>
-  <si>
-    <t>Agendamento de consultas</t>
-  </si>
-  <si>
-    <t>Busca de profissionais</t>
-  </si>
-  <si>
-    <t>Pós-Consulta</t>
-  </si>
-  <si>
-    <t>Pessoa responsável pela gestão do sistema: Administrador</t>
-  </si>
-  <si>
-    <t>Gestão do sistema</t>
-  </si>
-  <si>
-    <t>Segurança e privacidade</t>
-  </si>
-  <si>
-    <t>Consulta</t>
-  </si>
-  <si>
-    <t>US 01</t>
-  </si>
-  <si>
-    <t>US 02</t>
-  </si>
-  <si>
-    <t>US 03</t>
-  </si>
-  <si>
-    <t>US 04</t>
-  </si>
-  <si>
-    <t>US 05</t>
-  </si>
-  <si>
-    <t>US 06</t>
-  </si>
-  <si>
     <t>US 07</t>
   </si>
   <si>
-    <t>US 08</t>
-  </si>
-  <si>
-    <t>US 09</t>
-  </si>
-  <si>
-    <t>US 10</t>
-  </si>
-  <si>
-    <t>US 11</t>
+    <t>Quero poder adicionar psicólogos aos favoritos em uma lista</t>
+  </si>
+  <si>
+    <t>Para facilitar futuras consultas</t>
   </si>
   <si>
     <t>US 12</t>
   </si>
   <si>
+    <t>Quero poder realizar o pagamento através do sistema</t>
+  </si>
+  <si>
+    <t>Para unificar todas as ações em um só lugar</t>
+  </si>
+  <si>
     <t>US 13</t>
   </si>
   <si>
-    <t>US 14</t>
-  </si>
-  <si>
-    <t>US 15</t>
-  </si>
-  <si>
-    <t>Eu como pessoa</t>
-  </si>
-  <si>
-    <t>Quero realizar um cadastro no sistema</t>
-  </si>
-  <si>
-    <t>Para ter acesso aos serviços</t>
-  </si>
-  <si>
-    <t>Quero poder editar meu perfil</t>
-  </si>
-  <si>
-    <t>Para atualizar minhas informações</t>
-  </si>
-  <si>
-    <t>Eu como pessoa interessada em adquirir seus serviços: Paciente</t>
-  </si>
-  <si>
-    <t>Pessoa interessada em oferecer seus serviços: Psicólogo</t>
-  </si>
-  <si>
-    <t>Para atender minhas especificações</t>
-  </si>
-  <si>
-    <t>Quero buscar profissionais</t>
-  </si>
-  <si>
-    <t>Para ter um bom atendimento psicológico</t>
-  </si>
-  <si>
-    <t>Quero criar filtros</t>
-  </si>
-  <si>
-    <t>Quero vizualizar o perfil dos psicólogos</t>
-  </si>
-  <si>
-    <t>Pra ter acesso a suas informações</t>
-  </si>
-  <si>
-    <t>Quero vizualizar avaliações dos profissionais</t>
-  </si>
-  <si>
-    <t>Para ter um feedback de outros pacientes</t>
-  </si>
-  <si>
-    <t>Quero poder adicionar psicólogos aos favoritos em uma lista</t>
-  </si>
-  <si>
-    <t>Para facilitar futuras consultas</t>
-  </si>
-  <si>
-    <t>Quero vizualizar a disponibilidade dos profissionais</t>
-  </si>
-  <si>
-    <t>Para agendar um horário</t>
-  </si>
-  <si>
-    <t>Quero poder remarcar minha consulta</t>
-  </si>
-  <si>
-    <t>Quero poder desmarcar minha consulta</t>
-  </si>
-  <si>
-    <t>Para caso haja um imprevisto</t>
-  </si>
-  <si>
-    <t>Para caso haja um emprevisto</t>
-  </si>
-  <si>
-    <t>Quero poder realizar o pagamento através do sistema</t>
-  </si>
-  <si>
-    <t>Para unificar todas as ações em um só lugar</t>
-  </si>
-  <si>
     <t>Quero receber lembretes sobre a consulta</t>
   </si>
   <si>
     <t>Para evitar esquecimento</t>
   </si>
   <si>
+    <t>US 18</t>
+  </si>
+  <si>
     <t>Quero entrar em contato através do sistema</t>
   </si>
   <si>
     <t>Para tirar dúvidas</t>
-  </si>
-  <si>
-    <t>US 16</t>
-  </si>
-  <si>
-    <t>US 18</t>
-  </si>
-  <si>
-    <t>US 17</t>
-  </si>
-  <si>
-    <t>Eu como pessoa interessada em oferecer seus serviços: Psicólogo</t>
-  </si>
-  <si>
-    <t>Quero informar minha disponibilidade</t>
-  </si>
-  <si>
-    <t>Para os pacientes terem acesso os horários</t>
-  </si>
-  <si>
-    <t>Quero aceitar e recusar consultas</t>
-  </si>
-  <si>
-    <t>Para ter um maior controle</t>
-  </si>
-  <si>
-    <t>Quero fornecer feedbacks aos profissionais</t>
-  </si>
-  <si>
-    <t>Para compartilhar minha experiência</t>
-  </si>
-  <si>
-    <t>Quero ter registrado meu histórico de consulta</t>
-  </si>
-  <si>
-    <t>Para acompanhar o tratamento</t>
-  </si>
-  <si>
-    <t>Eu como pessoa responsável pela gestão do sistema: Administrador</t>
-  </si>
-  <si>
-    <t>Encerramento de consulta</t>
-  </si>
-  <si>
-    <t>US 01 Realizar cadastro        (Fundamental)</t>
-  </si>
-  <si>
-    <t>US 02 Editar perfil      (Fundamental)</t>
-  </si>
-  <si>
-    <t>US 03 Criar filtros             (Fundamental)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US 04 Buscar profissinais        (Fundamental)  </t>
-  </si>
-  <si>
-    <t>US 05 Vizualizar perfil dos psicólogos                               (Fundamental)</t>
-  </si>
-  <si>
-    <t>US 08 Visualizar disponibilidade dos psicólogos                  (Fundamental)</t>
-  </si>
-  <si>
-    <t>US 07 Adicionar psicólogos aos favoritos                                (Irrelevante)</t>
-  </si>
-  <si>
-    <t>US 09 Marcar consulta (Fundamental)</t>
-  </si>
-  <si>
-    <t>US 10 Remarcar consulta      (Fundamental)</t>
-  </si>
-  <si>
-    <t>US 11 Desmarcar consulta (Fundamental)</t>
-  </si>
-  <si>
-    <t>US 12 Realizar pagamento        (Irrelevante)</t>
-  </si>
-  <si>
-    <t>US 13 Receber lembrete             (Irrelevante)</t>
-  </si>
-  <si>
-    <t>US 14 Informar disponibilidade            (Fundamental)</t>
-  </si>
-  <si>
-    <t>US 15 Aceitar e recusar consultas                    (Fundamental)</t>
-  </si>
-  <si>
-    <t>US 18 Entrar em contato pelo sistema                            (Irrelevante)</t>
-  </si>
-  <si>
-    <t>US 19</t>
-  </si>
-  <si>
-    <t>US 17 Acessar histórico de consultas                                              (Bom de ter)</t>
-  </si>
-  <si>
-    <t>US 16 Fornecer feedbacks       (Bom de ter)</t>
-  </si>
-  <si>
-    <t>US 06 Visualizar feedbacks                    (Bom de ter)</t>
-  </si>
-  <si>
-    <t>Desejo avisar aos usuários sobre a utilização de seus dados</t>
-  </si>
-  <si>
-    <t>Para atender as normas da LGPD</t>
-  </si>
-  <si>
-    <t>US 19 Informar sobre a utilização de dados                        (Fundamental)</t>
-  </si>
-  <si>
-    <t>Quero marcar consultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para receber os devidos tratamentos psicológicos </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF1F4E79"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF5B9BD5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF1F4E79"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -401,49 +413,44 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -451,64 +458,33 @@
       <color rgb="FFA5A5A5"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA5A5A5"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0D0D0D"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="19"/>
-      <color rgb="FF1F4E79"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF5B9BD5"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF1F4E79"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -516,16 +492,9 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,92 +503,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9CC2E5"/>
-        <bgColor rgb="FF9CC2E5"/>
+        <fgColor theme="9"/>
+        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
+        <fgColor theme="5" tint="0.59987182226020086"/>
+        <bgColor rgb="FFF4B083"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59987182226020086"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC2E5"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B083"/>
-        <bgColor rgb="FFF4B083"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <bgColor rgb="FFF8CBAD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF9CC2E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor rgb="FF9CC2E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -629,14 +548,29 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,38 +578,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,149 +602,186 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFBDD7EE"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FF9CC2E5"/>
+      <rgbColor rgb="FFF4B083"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFF8CBAD"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF70AD47"/>
+      <rgbColor rgb="FF0D0D0D"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF1F4E79"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -839,17 +795,80 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="133350" cy="5572126"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>456840</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3">
+        <xdr:cNvPr id="2" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3208320" y="3400200"/>
+          <a:ext cx="132840" cy="5571720"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>380880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
@@ -860,8 +879,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="3438525"/>
-          <a:ext cx="133350" cy="5572126"/>
+          <a:off x="3265200" y="1695600"/>
+          <a:ext cx="66240" cy="647280"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst>
@@ -870,48 +889,44 @@
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
+          <a:miter/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>380880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="66675" cy="647700"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447120</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190080</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4">
+        <xdr:cNvPr id="4" name="Shape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
@@ -922,8 +937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5312663" y="3456150"/>
-          <a:ext cx="66675" cy="647700"/>
+          <a:off x="3265200" y="2457360"/>
+          <a:ext cx="66240" cy="628200"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst>
@@ -932,99 +947,28 @@
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
+          <a:miter/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="66675" cy="628650"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5312663" y="3465675"/>
-          <a:ext cx="66675" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1081,49 +1025,45 @@
         <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -1131,33 +1071,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -1170,13 +1101,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1186,15 +1111,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -1202,7 +1125,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1210,11 +1132,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1226,13 +1148,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S993"/>
+  <dimension ref="A1:P993"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.7265625" customWidth="1"/>
     <col min="2" max="5" width="8.7265625" customWidth="1"/>
@@ -1247,564 +1169,535 @@
     <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" ht="23.25" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="29.5">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.5">
+      <c r="A3" s="15">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="F9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="I9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="18"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="I13" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="29.5">
-      <c r="A2" s="19" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="O13" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="21">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="21"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1">
-      <c r="A6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="F9" s="32" t="s">
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="3:16" ht="36" customHeight="1">
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="F17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="I17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="L17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="O17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="I9" s="29" t="s">
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="3:16" ht="25.5" customHeight="1">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="3:16" ht="15" customHeight="1">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="3:16" ht="15" customHeight="1">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="I20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="L20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="O20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="36" t="s">
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="3:16" ht="15" customHeight="1">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="3:16" ht="15" customHeight="1">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="3:16" ht="17.25" customHeight="1">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="F23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="3:16" ht="30.75" customHeight="1">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="3:16" ht="15" customHeight="1">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="3:16" ht="21" customHeight="1">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="L26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="O9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="36"/>
-      <c r="R9" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9" s="47"/>
-    </row>
-    <row r="10" spans="1:19" ht="14.5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="I13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="37"/>
-      <c r="O13" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="P13" s="37"/>
-      <c r="R13" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="S13" s="47"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1">
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" ht="14.5">
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="17" spans="3:19" ht="36" customHeight="1">
-      <c r="C17" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="F17" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="I17" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="L17" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="36"/>
-      <c r="O17" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="P17" s="36"/>
-      <c r="R17" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" s="48"/>
-    </row>
-    <row r="18" spans="3:19" ht="25.5" customHeight="1">
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-    </row>
-    <row r="19" spans="3:19" ht="15" customHeight="1">
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-    </row>
-    <row r="20" spans="3:19" ht="15" customHeight="1">
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="F20" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="I20" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="L20" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="46"/>
-      <c r="O20" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" s="45"/>
-    </row>
-    <row r="21" spans="3:19" ht="15" customHeight="1">
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-    </row>
-    <row r="22" spans="3:19" ht="15" customHeight="1">
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-    </row>
-    <row r="23" spans="3:19" ht="17.25" customHeight="1">
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="F23" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="L23" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" s="36"/>
-    </row>
-    <row r="24" spans="3:19" ht="30.75" customHeight="1">
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="I24" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="P24" s="39"/>
-    </row>
-    <row r="25" spans="3:19" ht="15" customHeight="1">
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-    </row>
-    <row r="26" spans="3:19" ht="21" customHeight="1">
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="L26" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="36"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-    </row>
-    <row r="27" spans="3:19" ht="24.75" customHeight="1">
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="I27" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-    </row>
-    <row r="28" spans="3:19" ht="15.75" customHeight="1">
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="3:19" ht="27.75" customHeight="1">
-      <c r="L29" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="M29" s="36"/>
-    </row>
-    <row r="30" spans="3:19" ht="25.5" customHeight="1">
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-    </row>
-    <row r="31" spans="3:19" ht="15.75" customHeight="1">
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="3:19" ht="26.25" customHeight="1">
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="L32" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M32" s="39"/>
+      <c r="M26" s="10"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="3:16" ht="24.75" customHeight="1">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="I27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="3:16" ht="15.75" customHeight="1">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="3:16" ht="27.75" customHeight="1">
+      <c r="L29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="3:16" ht="25.5" customHeight="1">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="3:16" ht="15.75" customHeight="1">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="3:16" ht="26.25" customHeight="1">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="L32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="37.5" customHeight="1">
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="35" spans="1:13" ht="24.75" customHeight="1">
-      <c r="I35" s="8"/>
-      <c r="L35" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="M35" s="44"/>
+      <c r="I35" s="25"/>
+      <c r="L35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" ht="25.5" customHeight="1">
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="25"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="M38" s="44"/>
+      <c r="A38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" ht="34.5" customHeight="1">
-      <c r="A39" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
+      <c r="A39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1">
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+      <c r="A43" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1">
-      <c r="A47" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="A47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="23"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="27"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="22"/>
+      <c r="K49" s="22"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="E50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="K50" s="23"/>
+      <c r="E50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="K50" s="27"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="H51" s="22"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-    </row>
+      <c r="A52" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="54" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A55" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
+      <c r="E56" s="41"/>
+    </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="58" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="59" spans="1:11" ht="15.75" customHeight="1"/>
@@ -2743,61 +2636,57 @@
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="O20:P22"/>
-    <mergeCell ref="O24:P26"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="R9:S10"/>
-    <mergeCell ref="R13:S14"/>
-    <mergeCell ref="R17:S18"/>
-    <mergeCell ref="L23:M24"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="O13:P14"/>
+  <mergeCells count="34">
+    <mergeCell ref="A43:C45"/>
+    <mergeCell ref="A47:C49"/>
+    <mergeCell ref="L29:M30"/>
+    <mergeCell ref="L32:M33"/>
+    <mergeCell ref="L35:M36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="L38:M39"/>
+    <mergeCell ref="A39:C41"/>
+    <mergeCell ref="C17:D27"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="I17:J18"/>
     <mergeCell ref="L17:M18"/>
     <mergeCell ref="O17:P18"/>
-    <mergeCell ref="A51:C53"/>
-    <mergeCell ref="L29:M30"/>
-    <mergeCell ref="L32:M33"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="I20:J22"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="O20:P22"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="L23:M24"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="O24:P26"/>
     <mergeCell ref="L26:M27"/>
-    <mergeCell ref="A47:C49"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C41"/>
-    <mergeCell ref="A43:C45"/>
-    <mergeCell ref="L35:M36"/>
-    <mergeCell ref="L38:M39"/>
     <mergeCell ref="I27:J28"/>
-    <mergeCell ref="I20:J22"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="O13:P14"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="B9:D10"/>
     <mergeCell ref="F9:G10"/>
     <mergeCell ref="I9:J10"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="C17:D27"/>
-    <mergeCell ref="I24:J25"/>
-    <mergeCell ref="F23:G24"/>
     <mergeCell ref="L9:M10"/>
-    <mergeCell ref="L13:M14"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M1014"/>
+  <dimension ref="A1:M1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="66.81640625" customWidth="1"/>
@@ -2811,858 +2700,837 @@
     <col min="13" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5">
-      <c r="A1" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.5">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.5">
-      <c r="A3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.5">
-      <c r="A4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="C3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="42"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A42" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A43" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="51"/>
-    </row>
-    <row r="5" spans="1:12" ht="14.5">
-      <c r="A5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.5">
-      <c r="A6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A44" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.5">
-      <c r="A7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.5">
-      <c r="A8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="51"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.5">
-      <c r="A9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.5">
-      <c r="A10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.5">
-      <c r="A11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.5">
-      <c r="A12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.5">
-      <c r="A13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.5">
-      <c r="A14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.5">
-      <c r="A15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.5">
-      <c r="A16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.5">
-      <c r="A17" s="10" t="s">
+      <c r="C44" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A45" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A46" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A47" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.5">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="51"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.5">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.5">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="51"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="51"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="51"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="51"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="51"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A48" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="51"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="51"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4612,43 +4480,40 @@
     <row r="1011" ht="15.75" customHeight="1"/>
     <row r="1012" ht="15.75" customHeight="1"/>
     <row r="1013" ht="15.75" customHeight="1"/>
-    <row r="1014" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="30">
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="E44:L44"/>
+    <mergeCell ref="E45:L45"/>
+    <mergeCell ref="E46:L46"/>
+    <mergeCell ref="E47:L47"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="E26:L26"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E11:L11"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="E2:L2"/>
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="E4:L4"/>
     <mergeCell ref="E5:L5"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="E46:L46"/>
-    <mergeCell ref="E47:L47"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="E49:L49"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="E44:L44"/>
-    <mergeCell ref="E45:L45"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>